--- a/docs/quizsheets/dsaide_stochasticsir.xlsx
+++ b/docs/quizsheets/dsaide_stochasticsir.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,12 +407,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Total number of recovered at end of outbreak with random seed = 101</t>
+          <t>Final number susceptible, random seed 100, stochastic model</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Report the rounded integer</t>
+          <t>Report the integer</t>
         </is>
       </c>
     </row>
@@ -434,12 +434,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Total number of recovered at end of outbreak with random seed = 102</t>
+          <t>Final number susceptible, random seed 102, stochastic model</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Report the rounded integer</t>
+          <t>Report the integer</t>
         </is>
       </c>
     </row>
@@ -461,12 +461,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>How many simulations produced an outbreak?</t>
+          <t>Final number susceptible, deterministic model</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Report integer</t>
+          <t>Report the integer</t>
         </is>
       </c>
     </row>
@@ -478,22 +478,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>T4R1</t>
+          <t>T2R2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Is there a postive or negative relationship between R~0~ and the probability of getting an outbreak?</t>
+          <t>Average final number susceptible, stochastic model</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Report 'positive' or 'negative'</t>
+          <t>Report the integer</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,76 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>T3R1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>R0 for the model</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Report the integer</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticsir</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>T4R1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The relation between R0 and the probability of an outbreak is close to a straight line.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Report TRUE or FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dsaide_stochasticsir</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>T5R1</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Is there a positive or negative relationship between the initial number of infected and the probability of getting an outbreak?</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Report 'positive' or 'negative'</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The relation between R0 and the probability of an outbreak is close to a straight line.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Report TRUE or FALSE</t>
         </is>
       </c>
     </row>

--- a/docs/quizsheets/dsaide_stochasticsir.xlsx
+++ b/docs/quizsheets/dsaide_stochasticsir.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Report the integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Report the integer</t>
+          <t>Report the rounded integer</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Report the integer</t>
+          <t>Report to one decimal place</t>
         </is>
       </c>
     </row>
